--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Icam4-Itgam.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Icam4-Itgam.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t>Inflammatory-Mac</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>21</v>
@@ -537,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.109744</v>
+        <v>1.412252666666667</v>
       </c>
       <c r="H2">
-        <v>3.329232</v>
+        <v>4.236758</v>
       </c>
       <c r="I2">
-        <v>0.3385593670631844</v>
+        <v>0.409051039104018</v>
       </c>
       <c r="J2">
-        <v>0.3385593670631844</v>
+        <v>0.4090510391040179</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -561,22 +564,22 @@
         <v>0.428169</v>
       </c>
       <c r="O2">
-        <v>0.0004707902754357479</v>
+        <v>0.0009642800942465787</v>
       </c>
       <c r="P2">
-        <v>0.0004707902754357478</v>
+        <v>0.0009642800942465787</v>
       </c>
       <c r="Q2">
-        <v>0.158385992912</v>
+        <v>0.2015609373446667</v>
       </c>
       <c r="R2">
-        <v>1.425473936208</v>
+        <v>1.814048436102</v>
       </c>
       <c r="S2">
-        <v>0.0001593904576710291</v>
+        <v>0.0003944397745388834</v>
       </c>
       <c r="T2">
-        <v>0.000159390457671029</v>
+        <v>0.0003944397745388833</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>22</v>
@@ -599,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.109744</v>
+        <v>1.412252666666667</v>
       </c>
       <c r="H3">
-        <v>3.329232</v>
+        <v>4.236758</v>
       </c>
       <c r="I3">
-        <v>0.3385593670631844</v>
+        <v>0.409051039104018</v>
       </c>
       <c r="J3">
-        <v>0.3385593670631844</v>
+        <v>0.4090510391040179</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>148.0881626666667</v>
+        <v>86.42780700000002</v>
       </c>
       <c r="N3">
-        <v>444.264488</v>
+        <v>259.283421</v>
       </c>
       <c r="O3">
-        <v>0.4884879584272602</v>
+        <v>0.5839326098770704</v>
       </c>
       <c r="P3">
-        <v>0.4884879584272601</v>
+        <v>0.5839326098770704</v>
       </c>
       <c r="Q3">
-        <v>164.3399499903574</v>
+        <v>122.057900909902</v>
       </c>
       <c r="R3">
-        <v>1479.059549913216</v>
+        <v>1098.521108189118</v>
       </c>
       <c r="S3">
-        <v>0.1653821740231203</v>
+        <v>0.2388582408369368</v>
       </c>
       <c r="T3">
-        <v>0.1653821740231203</v>
+        <v>0.2388582408369368</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,10 +649,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>23</v>
@@ -661,61 +664,61 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.109744</v>
+        <v>1.412252666666667</v>
       </c>
       <c r="H4">
-        <v>3.329232</v>
+        <v>4.236758</v>
       </c>
       <c r="I4">
-        <v>0.3385593670631844</v>
+        <v>0.409051039104018</v>
       </c>
       <c r="J4">
-        <v>0.3385593670631844</v>
+        <v>0.4090510391040179</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>154.9253336666667</v>
+        <v>0.006361333333333333</v>
       </c>
       <c r="N4">
-        <v>464.776001</v>
+        <v>0.019084</v>
       </c>
       <c r="O4">
-        <v>0.5110412512973043</v>
+        <v>4.297910712499435E-05</v>
       </c>
       <c r="P4">
-        <v>0.5110412512973042</v>
+        <v>4.297910712499435E-05</v>
       </c>
       <c r="Q4">
-        <v>171.9274594845813</v>
+        <v>0.008983809963555555</v>
       </c>
       <c r="R4">
-        <v>1547.347135361232</v>
+        <v>0.08085428967200001</v>
       </c>
       <c r="S4">
-        <v>0.1730178025823931</v>
+        <v>1.758064842924184E-05</v>
       </c>
       <c r="T4">
-        <v>0.173017802582393</v>
+        <v>1.758064842924184E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
       <c r="E5">
         <v>3</v>
       </c>
@@ -723,46 +726,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.674352</v>
+        <v>1.412252666666667</v>
       </c>
       <c r="H5">
-        <v>2.023056</v>
+        <v>4.236758</v>
       </c>
       <c r="I5">
-        <v>0.2057304984733349</v>
+        <v>0.409051039104018</v>
       </c>
       <c r="J5">
-        <v>0.2057304984733349</v>
+        <v>0.4090510391040179</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.142723</v>
+        <v>61.43300833333333</v>
       </c>
       <c r="N5">
-        <v>0.428169</v>
+        <v>184.299025</v>
       </c>
       <c r="O5">
-        <v>0.0004707902754357479</v>
+        <v>0.415060130921558</v>
       </c>
       <c r="P5">
-        <v>0.0004707902754357478</v>
+        <v>0.415060130921558</v>
       </c>
       <c r="Q5">
-        <v>0.09624554049599998</v>
+        <v>86.75892984010555</v>
       </c>
       <c r="R5">
-        <v>0.8662098644639999</v>
+        <v>780.83036856095</v>
       </c>
       <c r="S5">
-        <v>9.685591804179503E-05</v>
+        <v>0.169780777844113</v>
       </c>
       <c r="T5">
-        <v>9.685591804179502E-05</v>
+        <v>0.169780777844113</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,13 +773,13 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,40 +794,40 @@
         <v>2.023056</v>
       </c>
       <c r="I6">
-        <v>0.2057304984733349</v>
+        <v>0.1953222626748136</v>
       </c>
       <c r="J6">
-        <v>0.2057304984733349</v>
+        <v>0.1953222626748136</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>148.0881626666667</v>
+        <v>0.142723</v>
       </c>
       <c r="N6">
-        <v>444.264488</v>
+        <v>0.428169</v>
       </c>
       <c r="O6">
-        <v>0.4884879584272602</v>
+        <v>0.0009642800942465787</v>
       </c>
       <c r="P6">
-        <v>0.4884879584272601</v>
+        <v>0.0009642800942465787</v>
       </c>
       <c r="Q6">
-        <v>99.863548670592</v>
+        <v>0.09624554049600001</v>
       </c>
       <c r="R6">
-        <v>898.771938035328</v>
+        <v>0.8662098644640001</v>
       </c>
       <c r="S6">
-        <v>0.1004968711854619</v>
+        <v>0.0001883453698605243</v>
       </c>
       <c r="T6">
-        <v>0.1004968711854619</v>
+        <v>0.0001883453698605243</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,13 +835,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,10 +856,10 @@
         <v>2.023056</v>
       </c>
       <c r="I7">
-        <v>0.2057304984733349</v>
+        <v>0.1953222626748136</v>
       </c>
       <c r="J7">
-        <v>0.2057304984733349</v>
+        <v>0.1953222626748136</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,42 +868,42 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>154.9253336666667</v>
+        <v>86.42780700000002</v>
       </c>
       <c r="N7">
-        <v>464.776001</v>
+        <v>259.283421</v>
       </c>
       <c r="O7">
-        <v>0.5110412512973043</v>
+        <v>0.5839326098770704</v>
       </c>
       <c r="P7">
-        <v>0.5110412512973042</v>
+        <v>0.5839326098770704</v>
       </c>
       <c r="Q7">
-        <v>104.474208608784</v>
+        <v>58.28276450606401</v>
       </c>
       <c r="R7">
-        <v>940.2678774790559</v>
+        <v>524.544880554576</v>
       </c>
       <c r="S7">
-        <v>0.1051367713698312</v>
+        <v>0.1140550386107986</v>
       </c>
       <c r="T7">
-        <v>0.1051367713698312</v>
+        <v>0.1140550386107986</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -909,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.3512606666666667</v>
+        <v>0.674352</v>
       </c>
       <c r="H8">
-        <v>1.053782</v>
+        <v>2.023056</v>
       </c>
       <c r="I8">
-        <v>0.1071621824320374</v>
+        <v>0.1953222626748136</v>
       </c>
       <c r="J8">
-        <v>0.1071621824320373</v>
+        <v>0.1953222626748136</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -927,43 +930,43 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.142723</v>
+        <v>0.006361333333333333</v>
       </c>
       <c r="N8">
-        <v>0.428169</v>
+        <v>0.019084</v>
       </c>
       <c r="O8">
-        <v>0.0004707902754357479</v>
+        <v>4.297910712499435E-05</v>
       </c>
       <c r="P8">
-        <v>0.0004707902754357478</v>
+        <v>4.297910712499435E-05</v>
       </c>
       <c r="Q8">
-        <v>0.05013297612866666</v>
+        <v>0.004289777856</v>
       </c>
       <c r="R8">
-        <v>0.4511967851579999</v>
+        <v>0.038608000704</v>
       </c>
       <c r="S8">
-        <v>5.045091338347473E-05</v>
+        <v>8.394776451397101E-06</v>
       </c>
       <c r="T8">
-        <v>5.045091338347472E-05</v>
+        <v>8.394776451397101E-06</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
       <c r="E9">
         <v>3</v>
       </c>
@@ -971,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.3512606666666667</v>
+        <v>0.674352</v>
       </c>
       <c r="H9">
-        <v>1.053782</v>
+        <v>2.023056</v>
       </c>
       <c r="I9">
-        <v>0.1071621824320374</v>
+        <v>0.1953222626748136</v>
       </c>
       <c r="J9">
-        <v>0.1071621824320373</v>
+        <v>0.1953222626748136</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>148.0881626666667</v>
+        <v>61.43300833333333</v>
       </c>
       <c r="N9">
-        <v>444.264488</v>
+        <v>184.299025</v>
       </c>
       <c r="O9">
-        <v>0.4884879584272602</v>
+        <v>0.415060130921558</v>
       </c>
       <c r="P9">
-        <v>0.4884879584272601</v>
+        <v>0.415060130921558</v>
       </c>
       <c r="Q9">
-        <v>52.01754674373512</v>
+        <v>41.4274720356</v>
       </c>
       <c r="R9">
-        <v>468.157920693616</v>
+        <v>372.8472483204</v>
       </c>
       <c r="S9">
-        <v>0.05234743571683553</v>
+        <v>0.08107048391770309</v>
       </c>
       <c r="T9">
-        <v>0.05234743571683553</v>
+        <v>0.08107048391770308</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,13 +1021,13 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1033,60 +1036,60 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.3512606666666667</v>
+        <v>0.9406819999999999</v>
       </c>
       <c r="H10">
-        <v>1.053782</v>
+        <v>2.822046</v>
       </c>
       <c r="I10">
-        <v>0.1071621824320374</v>
+        <v>0.2724632487150169</v>
       </c>
       <c r="J10">
-        <v>0.1071621824320373</v>
+        <v>0.2724632487150168</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>154.9253336666667</v>
+        <v>0.142723</v>
       </c>
       <c r="N10">
-        <v>464.776001</v>
+        <v>0.428169</v>
       </c>
       <c r="O10">
-        <v>0.5110412512973043</v>
+        <v>0.0009642800942465787</v>
       </c>
       <c r="P10">
-        <v>0.5110412512973042</v>
+        <v>0.0009642800942465787</v>
       </c>
       <c r="Q10">
-        <v>54.41917598730911</v>
+        <v>0.134256957086</v>
       </c>
       <c r="R10">
-        <v>489.772583885782</v>
+        <v>1.208312613774</v>
       </c>
       <c r="S10">
-        <v>0.05476429580181837</v>
+        <v>0.0002627308871496455</v>
       </c>
       <c r="T10">
-        <v>0.05476429580181835</v>
+        <v>0.0002627308871496454</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1095,61 +1098,61 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.142485</v>
+        <v>0.9406819999999999</v>
       </c>
       <c r="H11">
-        <v>3.427455</v>
+        <v>2.822046</v>
       </c>
       <c r="I11">
-        <v>0.3485479520314435</v>
+        <v>0.2724632487150169</v>
       </c>
       <c r="J11">
-        <v>0.3485479520314435</v>
+        <v>0.2724632487150168</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.142723</v>
+        <v>86.42780700000002</v>
       </c>
       <c r="N11">
-        <v>0.428169</v>
+        <v>259.283421</v>
       </c>
       <c r="O11">
-        <v>0.0004707902754357479</v>
+        <v>0.5839326098770704</v>
       </c>
       <c r="P11">
-        <v>0.0004707902754357478</v>
+        <v>0.5839326098770704</v>
       </c>
       <c r="Q11">
-        <v>0.163058886655</v>
+        <v>81.30108234437401</v>
       </c>
       <c r="R11">
-        <v>1.467529979895</v>
+        <v>731.7097410993661</v>
       </c>
       <c r="S11">
-        <v>0.0001640929863394491</v>
+        <v>0.1591001759177451</v>
       </c>
       <c r="T11">
-        <v>0.0001640929863394491</v>
+        <v>0.1591001759177451</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>23</v>
       </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
       <c r="E12">
         <v>3</v>
       </c>
@@ -1157,108 +1160,604 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.142485</v>
+        <v>0.9406819999999999</v>
       </c>
       <c r="H12">
-        <v>3.427455</v>
+        <v>2.822046</v>
       </c>
       <c r="I12">
-        <v>0.3485479520314435</v>
+        <v>0.2724632487150169</v>
       </c>
       <c r="J12">
-        <v>0.3485479520314435</v>
+        <v>0.2724632487150168</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>148.0881626666667</v>
+        <v>0.006361333333333333</v>
       </c>
       <c r="N12">
-        <v>444.264488</v>
+        <v>0.019084</v>
       </c>
       <c r="O12">
-        <v>0.4884879584272602</v>
+        <v>4.297910712499435E-05</v>
       </c>
       <c r="P12">
-        <v>0.4884879584272601</v>
+        <v>4.297910712499435E-05</v>
       </c>
       <c r="Q12">
-        <v>169.1885045242267</v>
+        <v>0.005983991762666666</v>
       </c>
       <c r="R12">
-        <v>1522.69654071804</v>
+        <v>0.053855925864</v>
       </c>
       <c r="S12">
-        <v>0.1702614775018425</v>
+        <v>1.171022715414669E-05</v>
       </c>
       <c r="T12">
-        <v>0.1702614775018424</v>
+        <v>1.171022715414669E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.9406819999999999</v>
+      </c>
+      <c r="H13">
+        <v>2.822046</v>
+      </c>
+      <c r="I13">
+        <v>0.2724632487150169</v>
+      </c>
+      <c r="J13">
+        <v>0.2724632487150168</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>61.43300833333333</v>
+      </c>
+      <c r="N13">
+        <v>184.299025</v>
+      </c>
+      <c r="O13">
+        <v>0.415060130921558</v>
+      </c>
+      <c r="P13">
+        <v>0.415060130921558</v>
+      </c>
+      <c r="Q13">
+        <v>57.78892514501666</v>
+      </c>
+      <c r="R13">
+        <v>520.10032630515</v>
+      </c>
+      <c r="S13">
+        <v>0.1130886316829679</v>
+      </c>
+      <c r="T13">
+        <v>0.1130886316829679</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
         <v>23</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.05847033333333334</v>
+      </c>
+      <c r="H14">
+        <v>0.175411</v>
+      </c>
+      <c r="I14">
+        <v>0.01693560307675702</v>
+      </c>
+      <c r="J14">
+        <v>0.01693560307675701</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.142723</v>
+      </c>
+      <c r="N14">
+        <v>0.428169</v>
+      </c>
+      <c r="O14">
+        <v>0.0009642800942465787</v>
+      </c>
+      <c r="P14">
+        <v>0.0009642800942465787</v>
+      </c>
+      <c r="Q14">
+        <v>0.008345061384333335</v>
+      </c>
+      <c r="R14">
+        <v>0.07510555245900001</v>
+      </c>
+      <c r="S14">
+        <v>1.63306649309779E-05</v>
+      </c>
+      <c r="T14">
+        <v>1.63306649309779E-05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.05847033333333334</v>
+      </c>
+      <c r="H15">
+        <v>0.175411</v>
+      </c>
+      <c r="I15">
+        <v>0.01693560307675702</v>
+      </c>
+      <c r="J15">
+        <v>0.01693560307675701</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>86.42780700000002</v>
+      </c>
+      <c r="N15">
+        <v>259.283421</v>
+      </c>
+      <c r="O15">
+        <v>0.5839326098770704</v>
+      </c>
+      <c r="P15">
+        <v>0.5839326098770704</v>
+      </c>
+      <c r="Q15">
+        <v>5.053462684559001</v>
+      </c>
+      <c r="R15">
+        <v>45.48116416103101</v>
+      </c>
+      <c r="S15">
+        <v>0.009889250904452869</v>
+      </c>
+      <c r="T15">
+        <v>0.009889250904452867</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.05847033333333334</v>
+      </c>
+      <c r="H16">
+        <v>0.175411</v>
+      </c>
+      <c r="I16">
+        <v>0.01693560307675702</v>
+      </c>
+      <c r="J16">
+        <v>0.01693560307675701</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.006361333333333333</v>
+      </c>
+      <c r="N16">
+        <v>0.019084</v>
+      </c>
+      <c r="O16">
+        <v>4.297910712499435E-05</v>
+      </c>
+      <c r="P16">
+        <v>4.297910712499435E-05</v>
+      </c>
+      <c r="Q16">
+        <v>0.0003719492804444445</v>
+      </c>
+      <c r="R16">
+        <v>0.003347543524</v>
+      </c>
+      <c r="S16">
+        <v>7.278770988623238E-07</v>
+      </c>
+      <c r="T16">
+        <v>7.278770988623237E-07</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.05847033333333334</v>
+      </c>
+      <c r="H17">
+        <v>0.175411</v>
+      </c>
+      <c r="I17">
+        <v>0.01693560307675702</v>
+      </c>
+      <c r="J17">
+        <v>0.01693560307675701</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>61.43300833333333</v>
+      </c>
+      <c r="N17">
+        <v>184.299025</v>
+      </c>
+      <c r="O17">
+        <v>0.415060130921558</v>
+      </c>
+      <c r="P17">
+        <v>0.415060130921558</v>
+      </c>
+      <c r="Q17">
+        <v>3.592008474919445</v>
+      </c>
+      <c r="R17">
+        <v>32.32807627427501</v>
+      </c>
+      <c r="S17">
+        <v>0.007029293630274307</v>
+      </c>
+      <c r="T17">
+        <v>0.007029293630274307</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.3667526666666667</v>
+      </c>
+      <c r="H18">
+        <v>1.100258</v>
+      </c>
+      <c r="I18">
+        <v>0.1062278464293945</v>
+      </c>
+      <c r="J18">
+        <v>0.1062278464293945</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M18">
+        <v>0.142723</v>
+      </c>
+      <c r="N18">
+        <v>0.428169</v>
+      </c>
+      <c r="O18">
+        <v>0.0009642800942465787</v>
+      </c>
+      <c r="P18">
+        <v>0.0009642800942465787</v>
+      </c>
+      <c r="Q18">
+        <v>0.05234404084466667</v>
+      </c>
+      <c r="R18">
+        <v>0.471096367602</v>
+      </c>
+      <c r="S18">
+        <v>0.0001024333977665476</v>
+      </c>
+      <c r="T18">
+        <v>0.0001024333977665476</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.3667526666666667</v>
+      </c>
+      <c r="H19">
+        <v>1.100258</v>
+      </c>
+      <c r="I19">
+        <v>0.1062278464293945</v>
+      </c>
+      <c r="J19">
+        <v>0.1062278464293945</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>86.42780700000002</v>
+      </c>
+      <c r="N19">
+        <v>259.283421</v>
+      </c>
+      <c r="O19">
+        <v>0.5839326098770704</v>
+      </c>
+      <c r="P19">
+        <v>0.5839326098770704</v>
+      </c>
+      <c r="Q19">
+        <v>31.69762869140201</v>
+      </c>
+      <c r="R19">
+        <v>285.278658222618</v>
+      </c>
+      <c r="S19">
+        <v>0.06202990360713697</v>
+      </c>
+      <c r="T19">
+        <v>0.06202990360713696</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
         <v>23</v>
       </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>1.142485</v>
-      </c>
-      <c r="H13">
-        <v>3.427455</v>
-      </c>
-      <c r="I13">
-        <v>0.3485479520314435</v>
-      </c>
-      <c r="J13">
-        <v>0.3485479520314435</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>154.9253336666667</v>
-      </c>
-      <c r="N13">
-        <v>464.776001</v>
-      </c>
-      <c r="O13">
-        <v>0.5110412512973043</v>
-      </c>
-      <c r="P13">
-        <v>0.5110412512973042</v>
-      </c>
-      <c r="Q13">
-        <v>176.9998698341616</v>
-      </c>
-      <c r="R13">
-        <v>1592.998828507455</v>
-      </c>
-      <c r="S13">
-        <v>0.1781223815432617</v>
-      </c>
-      <c r="T13">
-        <v>0.1781223815432616</v>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.3667526666666667</v>
+      </c>
+      <c r="H20">
+        <v>1.100258</v>
+      </c>
+      <c r="I20">
+        <v>0.1062278464293945</v>
+      </c>
+      <c r="J20">
+        <v>0.1062278464293945</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.006361333333333333</v>
+      </c>
+      <c r="N20">
+        <v>0.019084</v>
+      </c>
+      <c r="O20">
+        <v>4.297910712499435E-05</v>
+      </c>
+      <c r="P20">
+        <v>4.297910712499435E-05</v>
+      </c>
+      <c r="Q20">
+        <v>0.002333035963555555</v>
+      </c>
+      <c r="R20">
+        <v>0.020997323672</v>
+      </c>
+      <c r="S20">
+        <v>4.565577991346395E-06</v>
+      </c>
+      <c r="T20">
+        <v>4.565577991346394E-06</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.3667526666666667</v>
+      </c>
+      <c r="H21">
+        <v>1.100258</v>
+      </c>
+      <c r="I21">
+        <v>0.1062278464293945</v>
+      </c>
+      <c r="J21">
+        <v>0.1062278464293945</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>61.43300833333333</v>
+      </c>
+      <c r="N21">
+        <v>184.299025</v>
+      </c>
+      <c r="O21">
+        <v>0.415060130921558</v>
+      </c>
+      <c r="P21">
+        <v>0.415060130921558</v>
+      </c>
+      <c r="Q21">
+        <v>22.53071962760556</v>
+      </c>
+      <c r="R21">
+        <v>202.77647664845</v>
+      </c>
+      <c r="S21">
+        <v>0.04409094384649963</v>
+      </c>
+      <c r="T21">
+        <v>0.04409094384649963</v>
       </c>
     </row>
   </sheetData>
